--- a/data/jimmy_butler_totals_regular.xlsx
+++ b/data/jimmy_butler_totals_regular.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
-    <t xml:space="preserve">By Year</t>
+    <t xml:space="preserve">YEAR</t>
   </si>
   <si>
     <t xml:space="preserve">TEAM </t>
@@ -170,6 +170,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,11 +192,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,20 +243,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,1531 +390,1531 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="7.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>1746</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>964</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>301</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>597</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>50.4</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>30.8</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="4" t="n">
         <v>330</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="4" t="n">
         <v>392</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="4" t="n">
         <v>84.2</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="4" t="n">
         <v>296</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <v>298</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>1977.2</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="4" t="n">
         <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>980</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>538</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>334</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>47.6</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <v>27.9</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>201</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="4" t="n">
         <v>231</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>165</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <v>178</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <v>1133</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="4" t="n">
         <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>766</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>426</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>142</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>263</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>36.1</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <v>129</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="4" t="n">
         <v>80.1</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>131</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <v>844.2</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="4" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>2042</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>1246</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>396</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>793</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>49.9</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="4" t="n">
         <v>145</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <v>41.4</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <v>394</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="4" t="n">
         <v>459</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="4" t="n">
         <v>85.8</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="4" t="n">
         <v>318</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="4" t="n">
         <v>298</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="4" t="n">
         <v>2260.6</v>
       </c>
-      <c r="X5" s="3" t="n">
+      <c r="X5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="3" t="n">
+      <c r="Z5" s="4" t="n">
         <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>2138</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>1466</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>479</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>888</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>53.9</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <v>472</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <v>555</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="4" t="n">
         <v>141</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="4" t="n">
         <v>234</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="4" t="n">
         <v>375</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="4" t="n">
         <v>340</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="T6" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="4" t="n">
         <v>2739</v>
       </c>
-      <c r="X6" s="3" t="n">
+      <c r="X6" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" s="3" t="n">
+      <c r="Y6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z6" s="3" t="n">
+      <c r="Z6" s="4" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>1931</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>1219</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>398</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>829</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>23.3</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="4" t="n">
         <v>396</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="4" t="n">
         <v>455</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="4" t="n">
         <v>234</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="4" t="n">
         <v>336</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="4" t="n">
         <v>312</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="4" t="n">
         <v>2332.2</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="X7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Z7" s="3" t="n">
+      <c r="Z7" s="4" t="n">
         <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>1745</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>1116</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>366</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>736</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="4" t="n">
         <v>49.7</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <v>24.5</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="4" t="n">
         <v>359</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="4" t="n">
         <v>416</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="4" t="n">
         <v>86.3</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="4" t="n">
         <v>359</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="4" t="n">
         <v>2369.3</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="X8" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" s="3" t="n">
+      <c r="Y8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Z8" s="3" t="n">
+      <c r="Z8" s="4" t="n">
         <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>1959</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>1157</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>345</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>758</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>45.5</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <v>24.4</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>438</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="4" t="n">
         <v>525</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <v>83.4</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>280</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>386</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <v>127</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <v>2423.2</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="4" t="n">
         <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>2185</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>1215</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>418</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>904</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>46.2</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="4" t="n">
         <v>193</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <v>34.7</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <v>312</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>365</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="4" t="n">
         <v>85.5</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <v>221</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <v>342</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="4" t="n">
         <v>263</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>2410.9</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="X10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="Z10" s="4" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>1824</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>1002</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>344</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>747</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>46.1</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="4" t="n">
         <v>148</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <v>33.8</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>304</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="4" t="n">
         <v>86.8</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>185</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <v>220</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>1983</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="4" t="n">
         <v>221</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>361</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>47.1</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="4" t="n">
         <v>37.8</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="4" t="n">
         <v>78.7</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="S12" s="3" t="n">
+      <c r="S12" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="U12" s="3" t="n">
+      <c r="U12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="V12" s="3" t="n">
+      <c r="V12" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="4" t="n">
         <v>427.9</v>
       </c>
-      <c r="X12" s="3" t="n">
+      <c r="X12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Y12" s="3" t="n">
+      <c r="Y12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="3" t="n">
+      <c r="Z12" s="4" t="n">
         <v>-61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>2164</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>1307</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>437</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>921</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>47.4</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="4" t="n">
         <v>363</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="4" t="n">
         <v>425</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="4" t="n">
         <v>85.4</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="4" t="n">
         <v>235</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="4" t="n">
         <v>314</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="4" t="n">
         <v>288</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="S13" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="U13" s="3" t="n">
+      <c r="U13" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="4" t="n">
         <v>2427.8</v>
       </c>
-      <c r="X13" s="3" t="n">
+      <c r="X13" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Y13" s="3" t="n">
+      <c r="Y13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="3" t="n">
+      <c r="Z13" s="4" t="n">
         <v>374</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>2809</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>1816</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>570</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="4" t="n">
         <v>1252</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="4" t="n">
         <v>45.5</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="4" t="n">
         <v>248</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="4" t="n">
         <v>36.7</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="4" t="n">
         <v>585</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="4" t="n">
         <v>676</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="4" t="n">
         <v>86.5</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="4" t="n">
         <v>129</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="4" t="n">
         <v>341</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="4" t="n">
         <v>417</v>
       </c>
-      <c r="S14" s="3" t="n">
+      <c r="S14" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="4" t="n">
         <v>143</v>
       </c>
-      <c r="U14" s="3" t="n">
+      <c r="U14" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="4" t="n">
         <v>3371.5</v>
       </c>
-      <c r="X14" s="3" t="n">
+      <c r="X14" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" s="3" t="n">
+      <c r="Y14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="Z14" s="3" t="n">
+      <c r="Z14" s="4" t="n">
         <v>205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>2474</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>1399</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>1035</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="4" t="n">
         <v>45.4</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="4" t="n">
         <v>205</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="4" t="n">
         <v>31.2</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <v>395</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>475</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="4" t="n">
         <v>83.2</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="4" t="n">
         <v>279</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="4" t="n">
         <v>358</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="4" t="n">
         <v>321</v>
       </c>
-      <c r="S15" s="3" t="n">
+      <c r="S15" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="U15" s="3" t="n">
+      <c r="U15" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="4" t="n">
         <v>124</v>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="4" t="n">
         <v>2637.1</v>
       </c>
-      <c r="X15" s="3" t="n">
+      <c r="X15" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="Y15" s="3" t="n">
+      <c r="Y15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="Z15" s="3" t="n">
+      <c r="Z15" s="4" t="n">
         <v>-12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>2513</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>1301</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>421</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="4" t="n">
         <v>912</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="4" t="n">
         <v>46.2</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="4" t="n">
         <v>193</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="4" t="n">
         <v>37.8</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <v>386</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>463</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N16" s="4" t="n">
         <v>83.4</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <v>379</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="4" t="n">
         <v>212</v>
       </c>
-      <c r="S16" s="3" t="n">
+      <c r="S16" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="U16" s="3" t="n">
+      <c r="U16" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="4" t="n">
         <v>2430.8</v>
       </c>
-      <c r="X16" s="3" t="n">
+      <c r="X16" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Y16" s="3" t="n">
+      <c r="Y16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="3" t="n">
+      <c r="Z16" s="4" t="n">
         <v>238</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>2590</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>878</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="4" t="n">
         <v>693</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="4" t="n">
         <v>39.7</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="4" t="n">
         <v>28.3</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>338</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="4" t="n">
         <v>76.9</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="O17" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <v>330</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="4" t="n">
         <v>175</v>
       </c>
-      <c r="S17" s="3" t="n">
+      <c r="S17" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="4" t="n">
         <v>127</v>
       </c>
-      <c r="U17" s="3" t="n">
+      <c r="U17" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="V17" s="3" t="n">
+      <c r="V17" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="4" t="n">
         <v>1923.5</v>
       </c>
-      <c r="X17" s="3" t="n">
+      <c r="X17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Y17" s="3" t="n">
+      <c r="Y17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="3" t="n">
+      <c r="Z17" s="4" t="n">
         <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>2134</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>705</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4" t="n">
         <v>239</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="4" t="n">
         <v>512</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="4" t="n">
         <v>46.7</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="4" t="n">
         <v>38.1</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>187</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>233</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" s="4" t="n">
         <v>80.3</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="O18" s="4" t="n">
         <v>136</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <v>192</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <v>328</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="R18" s="4" t="n">
         <v>115</v>
       </c>
-      <c r="S18" s="3" t="n">
+      <c r="S18" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="U18" s="3" t="n">
+      <c r="U18" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="4" t="n">
         <v>1536.1</v>
       </c>
-      <c r="X18" s="3" t="n">
+      <c r="X18" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Y18" s="3" t="n">
+      <c r="Y18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z18" s="3" t="n">
+      <c r="Z18" s="4" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>359</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="4" t="n">
         <v>40.5</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="4" t="n">
         <v>18.2</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="4" t="n">
         <v>76.8</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="O19" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="Q19" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="R19" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="S19" s="3" t="n">
+      <c r="S19" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="T19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="U19" s="3" t="n">
+      <c r="U19" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="V19" s="3" t="n">
+      <c r="V19" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="W19" s="4" t="n">
         <v>231.2</v>
       </c>
-      <c r="X19" s="3" t="n">
+      <c r="X19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Y19" s="3" t="n">
+      <c r="Y19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="3" t="n">
+      <c r="Z19" s="4" t="n">
         <v>80</v>
       </c>
     </row>
